--- a/dataPublic/testObserverData.xlsx
+++ b/dataPublic/testObserverData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\ZlabCode\qtProjects\autograph_behavior\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\ZlabCode\qtProjects\autograph_behavior\dataPublic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469BA5E6-49A7-4D41-B57D-334220AA973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199844D-AB0C-4A79-A0B7-B07D01FC5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5310" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -475,23 +475,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.62890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5234375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -512,7 +512,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -552,7 +552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -572,7 +572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -652,7 +652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -692,7 +692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -732,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -792,7 +792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -812,7 +812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -832,7 +832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -852,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -932,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -952,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -972,7 +972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -992,7 +992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>23</v>
       </c>

--- a/dataPublic/testObserverData.xlsx
+++ b/dataPublic/testObserverData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\ZlabCode\qtProjects\autograph_behavior\dataPublic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199844D-AB0C-4A79-A0B7-B07D01FC5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FDC19-EA07-40D1-B7D9-8AE7C4E5DEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5310" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,18 +475,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5546875" customWidth="1"/>
   </cols>
